--- a/Documentazione/PB/Esterna/piano_di_progetto/Preventivo.xlsx
+++ b/Documentazione/PB/Esterna/piano_di_progetto/Preventivo.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\Appunti\Università\WMS3D\Documentazione\RTB\Esterna\piano_di_progetto_v0.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Desktop\PROGETTO SWE - SVILUPPO\2024-05-11-PIANODIPROGETTO\WMS3D\Documentazione\PB\Esterna\piano_di_progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9194A-0EF9-4C63-BC41-3133D68A4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8235"/>
+    <workbookView xWindow="33750" yWindow="960" windowWidth="51630" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -271,9 +281,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,10 +293,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -297,16 +304,6 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -377,6 +374,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -963,7 +970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808139375"/>
@@ -1022,7 +1029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808136047"/>
@@ -1039,7 +1046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1065,7 +1071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1095,7 +1101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1320,7 +1326,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1346,9 +1352,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1432,7 +1436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1458,7 +1461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1488,7 +1491,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1629,7 +1632,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1746,7 +1749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1776,7 +1779,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2252,7 +2255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808126895"/>
@@ -2311,7 +2314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808130223"/>
@@ -2328,7 +2331,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2354,7 +2356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2384,7 +2386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2968,7 +2970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817097343"/>
@@ -3027,7 +3029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817103167"/>
@@ -3044,7 +3046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3070,7 +3071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3100,7 +3101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3684,7 +3685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817099423"/>
@@ -3743,7 +3744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817095679"/>
@@ -3760,7 +3761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3786,7 +3786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3816,7 +3816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4400,7 +4400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817105663"/>
@@ -4459,7 +4459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817106911"/>
@@ -4501,7 +4501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4531,7 +4531,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5115,7 +5115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808126479"/>
@@ -5174,7 +5174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1808136879"/>
@@ -5216,7 +5216,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5246,7 +5246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5415,7 +5415,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5441,9 +5441,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5515,7 +5513,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5541,7 +5538,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5571,7 +5568,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5768,7 +5765,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5794,9 +5791,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5874,7 +5869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5900,7 +5894,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5930,7 +5924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6155,7 +6149,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -6181,9 +6175,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6267,7 +6259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6293,7 +6284,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6323,7 +6314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12406,7 +12397,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12436,7 +12433,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12466,7 +12469,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12496,7 +12505,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafico 5"/>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12526,7 +12541,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12556,7 +12577,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7"/>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12586,7 +12613,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Grafico 10"/>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12616,7 +12649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Grafico 14"/>
+        <xdr:cNvPr id="15" name="Grafico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12646,7 +12685,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Grafico 15"/>
+        <xdr:cNvPr id="16" name="Grafico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12676,7 +12721,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Grafico 16"/>
+        <xdr:cNvPr id="17" name="Grafico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12706,7 +12757,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Grafico 17"/>
+        <xdr:cNvPr id="18" name="Grafico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12986,4006 +13043,3452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="12"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="12"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.7109375" customWidth="1"/>
-    <col min="32" max="33" width="9.5703125" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" customWidth="1"/>
-    <col min="35" max="35" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" customWidth="1"/>
+    <col min="32" max="33" width="9.5546875" customWidth="1"/>
+    <col min="34" max="34" width="10.44140625" customWidth="1"/>
+    <col min="35" max="35" width="9.5546875" customWidth="1"/>
     <col min="36" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" customWidth="1"/>
-    <col min="41" max="41" width="20.7109375" customWidth="1"/>
-    <col min="42" max="48" width="9.5703125" customWidth="1"/>
+    <col min="37" max="37" width="9.88671875" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" customWidth="1"/>
+    <col min="41" max="41" width="20.6640625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" customWidth="1"/>
+    <col min="45" max="45" width="11.88671875" customWidth="1"/>
+    <col min="46" max="47" width="14.33203125" customWidth="1"/>
+    <col min="48" max="48" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" s="12"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="11"/>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2" t="s">
+      <c r="T3" s="11"/>
+      <c r="W3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>30</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AE3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="13"/>
-      <c r="AO3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AM3" s="11"/>
+      <c r="AO3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="13"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="2" t="s">
+      <c r="AW3" s="11"/>
+      <c r="AZ3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BA3" s="7">
+      <c r="BA3" s="6">
         <v>30</v>
       </c>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>SUM(C4:H4)</f>
         <v>20</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <f>SUM(M4:R4)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>20</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="4">
         <v>3</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="4">
         <v>6</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="4">
         <v>10</v>
       </c>
-      <c r="AI4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="5">
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
         <v>5</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" s="4">
         <f>SUM(AF4:AK4)</f>
         <v>24</v>
       </c>
-      <c r="AM4" s="14"/>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5">
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4">
         <f>SUM(AP4:AU4)</f>
         <v>0</v>
       </c>
-      <c r="AW4" s="14"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA4" s="6">
         <v>20</v>
       </c>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I9" si="0">SUM(C5:H5)</f>
         <v>20</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
         <f t="shared" ref="S5:S9" si="1">SUM(M5:R5)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>25</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="6">
         <v>3</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="6">
         <v>5</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="6">
         <v>4</v>
       </c>
-      <c r="AI5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="7">
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
         <v>8</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="6">
         <f t="shared" ref="AL5:AL9" si="2">SUM(AF5:AK5)</f>
         <v>20</v>
       </c>
-      <c r="AM5" s="14"/>
-      <c r="AO5" s="6" t="s">
+      <c r="AO5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7">
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6">
         <f t="shared" ref="AV5:AV9" si="3">SUM(AP5:AU5)</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="14"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA5" s="6">
         <v>25</v>
       </c>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>25</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="4">
         <v>2</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="4">
         <v>4</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="4">
         <v>10</v>
       </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="5">
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
         <v>8</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AL6" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AM6" s="14"/>
-      <c r="AO6" s="4" t="s">
+      <c r="AO6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5">
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW6" s="14"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BA6" s="7">
+      <c r="BA6" s="6">
         <v>25</v>
       </c>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>15</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="6">
         <v>5</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <v>6</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="6">
         <v>4</v>
       </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
         <v>5</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AM7" s="14"/>
-      <c r="AO7" s="6" t="s">
+      <c r="AO7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7">
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW7" s="14"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BA7" s="7">
+      <c r="BA7" s="6">
         <v>15</v>
       </c>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>13</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>15</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="4">
         <v>2</v>
       </c>
-      <c r="AG8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="5">
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
         <v>5</v>
       </c>
-      <c r="AI8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="5">
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
         <v>7</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AM8" s="14"/>
-      <c r="AO8" s="4" t="s">
+      <c r="AO8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW8" s="14"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BA8" s="6">
         <v>15</v>
       </c>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>9</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="7">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="8" t="s">
+      <c r="AE9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="8">
         <v>4</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AG9" s="8">
         <v>4</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="8">
         <v>9</v>
       </c>
-      <c r="AI9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="9">
+      <c r="AI9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8">
         <v>3</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AL9" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AM9" s="14"/>
-      <c r="AO9" s="8" t="s">
+      <c r="AO9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="7">
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW9" s="14"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <f>SUM(C4:C9)</f>
         <v>19</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" ref="D10:I10" si="4">SUM(D4:D9)</f>
         <v>21</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="12"/>
+      <c r="L10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <f>SUM(M4:M9)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <f t="shared" ref="N10" si="5">SUM(N4:N9)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <f t="shared" ref="O10" si="6">SUM(O4:O9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <f t="shared" ref="P10" si="7">SUM(P4:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <f t="shared" ref="Q10" si="8">SUM(Q4:Q9)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <f t="shared" ref="R10" si="9">SUM(R4:R9)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="9">
         <f t="shared" ref="S10" si="10">SUM(S4:S9)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="3" t="s">
+      <c r="T10" s="12"/>
+      <c r="AE10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="14">
         <f>SUM(AF4:AF9)</f>
         <v>19</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <f t="shared" ref="AG10:AL10" si="11">SUM(AG4:AG9)</f>
         <v>25</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="9">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AI10" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AJ10" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="9">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AL10" s="9">
         <f t="shared" si="11"/>
         <v>122</v>
       </c>
-      <c r="AM10" s="15"/>
-      <c r="AO10" s="3" t="s">
+      <c r="AM10" s="12"/>
+      <c r="AO10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AP10" s="9">
         <f>SUM(AP4:AP9)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AQ10" s="9">
         <f t="shared" ref="AQ10:AV10" si="12">SUM(AQ4:AQ9)</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="AR10" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="10">
+      <c r="AS10" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="10">
+      <c r="AT10" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="10">
+      <c r="AU10" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="10">
+      <c r="AV10" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
+      <c r="AW10" s="12"/>
     </row>
-    <row r="11" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <f>$X$3*C10</f>
         <v>570</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <f>$X$4*D10</f>
         <v>420</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <f>$X$5*E10</f>
         <v>950</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <f>$X$6*F10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <f>$X$7*G10</f>
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f>$X$8*H10</f>
         <v>630</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <f>SUM(C11:H11)</f>
         <v>2570</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="15">
         <f>$X$3*M10</f>
         <v>0</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="15">
         <f>$X$4*N10</f>
         <v>0</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="15">
         <f>$X$5*O10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="15">
         <f>$X$6*P10</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="15">
         <f>$X$7*Q10</f>
         <v>0</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="15">
         <f>$X$8*R10</f>
         <v>0</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="15">
         <f>SUM(M11:R11)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AE11" s="16" t="s">
+      <c r="AE11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11" s="15">
         <f>$X$3*AF10</f>
         <v>570</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG11" s="15">
         <f>$X$4*AG10</f>
         <v>500</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH11" s="15">
         <f>$X$5*AH10</f>
         <v>1050</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="15">
         <f>$X$6*AI10</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ11" s="15">
         <f>$X$7*AJ10</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="18">
+      <c r="AK11" s="15">
         <f>$X$8*AK10</f>
         <v>540</v>
       </c>
-      <c r="AL11" s="18">
+      <c r="AL11" s="15">
         <f>SUM(AF11:AK11)</f>
         <v>2660</v>
       </c>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="3" t="s">
+      <c r="AO11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AP11" s="18">
+      <c r="AP11" s="15">
         <f>$X$3*AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="18">
+      <c r="AQ11" s="15">
         <f>$X$4*AQ10</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="18">
+      <c r="AR11" s="15">
         <f>$X$5*AR10</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="18">
+      <c r="AS11" s="15">
         <f>$X$6*AS10</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="18">
+      <c r="AT11" s="15">
         <f>$X$7*AT10</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="18">
+      <c r="AU11" s="15">
         <f>$X$8*AU10</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="18">
+      <c r="AV11" s="15">
         <f>SUM(AP11:AU11)</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
+    <row r="14" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
+    <row r="15" spans="2:53" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="L15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="AE15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM15" s="11"/>
+      <c r="AO15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW15" s="11"/>
     </row>
-    <row r="14" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AE14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-    </row>
-    <row r="15" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
+    <row r="16" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
         <v>7</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="2" t="s">
+      <c r="H16" s="4">
         <v>7</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AE15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-    </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5">
-        <v>7</v>
-      </c>
-      <c r="H16" s="5">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f>SUM(C16:H16)</f>
         <v>32</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>2</v>
       </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <v>9</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>18</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>5</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <f>SUM(M16:R16)</f>
         <v>34</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="4">
         <v>4</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" s="4">
         <v>3</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AH16" s="4">
         <v>3</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="4">
         <v>4</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="4">
         <v>10</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AK16" s="4">
         <v>7</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AL16" s="4">
         <f>SUM(AF16:AK16)</f>
         <v>31</v>
       </c>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="4" t="s">
+      <c r="AO16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AP16" s="4">
         <v>2</v>
       </c>
-      <c r="AQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5">
+      <c r="AQ16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>17</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="4">
+        <f>SUM(AP16:AU16)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AT16" s="5">
-        <v>18</v>
-      </c>
-      <c r="AU16" s="5">
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="AV16" s="5">
-        <f>SUM(AP16:AU16)</f>
-        <v>34</v>
-      </c>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-    </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>13</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>8</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" ref="I17:I21" si="13">SUM(C17:H17)</f>
         <v>32</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>5</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>1</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <v>11</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>11</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>6</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <f t="shared" ref="S17:S21" si="14">SUM(M17:R17)</f>
         <v>34</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AE17" s="6" t="s">
+      <c r="AE17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="6">
         <v>2</v>
       </c>
-      <c r="AG17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="7">
+      <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
         <v>4</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AI17" s="6">
         <v>4</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AJ17" s="6">
         <v>15</v>
       </c>
-      <c r="AK17" s="7">
+      <c r="AK17" s="6">
         <v>8</v>
       </c>
-      <c r="AL17" s="7">
+      <c r="AL17" s="6">
         <f t="shared" ref="AL17:AL21" si="15">SUM(AF17:AK17)</f>
         <v>33</v>
       </c>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="6" t="s">
+      <c r="AO17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AP17" s="7">
-        <v>5</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="7">
-        <v>11</v>
-      </c>
-      <c r="AT17" s="7">
-        <v>11</v>
-      </c>
-      <c r="AU17" s="7">
+      <c r="AP17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>12</v>
+      </c>
+      <c r="AT17" s="6">
+        <v>16</v>
+      </c>
+      <c r="AU17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" ref="AV17:AV21" si="16">SUM(AP17:AU17)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="AV17" s="7">
-        <f t="shared" ref="AV17:AV21" si="16">SUM(AP17:AU17)</f>
-        <v>34</v>
-      </c>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-    </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="H18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>7</v>
-      </c>
-      <c r="G18" s="5">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5">
-        <v>6</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>3</v>
       </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
         <v>10</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>13</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>8</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="1"/>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="4">
         <v>3</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="4">
         <v>6</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AH18" s="4">
         <v>3</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="4">
         <v>4</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="4">
         <v>10</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="4">
         <v>6</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" s="4">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="4" t="s">
+      <c r="AO18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AP18" s="5">
-        <v>3</v>
-      </c>
-      <c r="AQ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="5">
+      <c r="AP18" s="4">
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="4">
         <v>10</v>
       </c>
-      <c r="AT18" s="5">
-        <v>13</v>
-      </c>
-      <c r="AU18" s="5">
+      <c r="AT18" s="4">
         <v>8</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="AU18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AV18" s="4">
         <f t="shared" si="16"/>
-        <v>34</v>
-      </c>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="1"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>8</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>11</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>10</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>2</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
         <v>4</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>10</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>13</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>5</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="1"/>
-      <c r="AE19" s="6" t="s">
+      <c r="AE19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="6">
         <v>2</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="6">
         <v>1</v>
       </c>
-      <c r="AH19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="7">
+      <c r="AH19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="6">
         <v>4</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="6">
         <v>13</v>
       </c>
-      <c r="AK19" s="7">
+      <c r="AK19" s="6">
         <v>10</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AL19" s="6">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="6" t="s">
+      <c r="AO19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AP19" s="7">
+      <c r="AP19" s="6">
         <v>2</v>
       </c>
-      <c r="AQ19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="7">
+      <c r="AQ19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>15</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>10</v>
+      </c>
+      <c r="AU19" s="6">
+        <v>8</v>
+      </c>
+      <c r="AV19" s="6">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="AS19" s="7">
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="AT19" s="7">
-        <v>13</v>
-      </c>
-      <c r="AU19" s="7">
-        <v>5</v>
-      </c>
-      <c r="AV19" s="7">
-        <f t="shared" si="16"/>
-        <v>34</v>
-      </c>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="1"/>
-    </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>8</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>2</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>5</v>
       </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
         <v>12</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="4">
         <v>15</v>
       </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="1"/>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AF20" s="4">
         <v>2</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AG20" s="4">
         <v>4</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AH20" s="4">
         <v>2</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="4">
         <v>4</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="4">
         <v>10</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AK20" s="4">
         <v>8</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AL20" s="4">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="4" t="s">
+      <c r="AO20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AP20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>14</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>12</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="4">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="AQ20" s="5">
-        <v>5</v>
-      </c>
-      <c r="AR20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="5">
-        <v>12</v>
-      </c>
-      <c r="AT20" s="5">
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
         <v>15</v>
       </c>
-      <c r="AU20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="5">
-        <f t="shared" si="16"/>
-        <v>34</v>
-      </c>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="1"/>
-    </row>
-    <row r="21" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>4</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>10</v>
-      </c>
-      <c r="H21" s="9">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>5</v>
       </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
         <v>15</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>14</v>
       </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="1"/>
-      <c r="AE21" s="8" t="s">
+      <c r="AE21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="8">
         <v>1</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="8">
         <v>4</v>
       </c>
-      <c r="AH21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="9">
+      <c r="AH21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="8">
         <v>4</v>
       </c>
-      <c r="AJ21" s="9">
+      <c r="AJ21" s="8">
         <v>12</v>
       </c>
-      <c r="AK21" s="9">
+      <c r="AK21" s="8">
         <v>15</v>
       </c>
-      <c r="AL21" s="7">
+      <c r="AL21" s="6">
         <f t="shared" si="15"/>
         <v>36</v>
       </c>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="8" t="s">
+      <c r="AO21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AP21" s="9">
-        <v>5</v>
-      </c>
-      <c r="AQ21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="9">
+      <c r="AP21" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>6</v>
+      </c>
+      <c r="AT21" s="8">
         <v>15</v>
       </c>
-      <c r="AT21" s="9">
+      <c r="AU21" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="6">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:58" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AU21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="7">
-        <f t="shared" si="16"/>
-        <v>34</v>
-      </c>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="1"/>
-    </row>
-    <row r="22" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f>SUM(C16:C21)</f>
         <v>14</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f t="shared" ref="D22" si="17">SUM(D16:D21)</f>
         <v>18</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" ref="E22" si="18">SUM(E16:E21)</f>
         <v>9</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f>SUM(F16:F21)</f>
         <v>36</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" ref="G22" si="19">SUM(G16:G21)</f>
         <v>61</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" ref="H22" si="20">SUM(H16:H21)</f>
         <v>54</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" ref="I22" si="21">SUM(I16:I21)</f>
         <v>192</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3" t="s">
+      <c r="J22" s="12"/>
+      <c r="L22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <f>SUM(M16:M21)</f>
         <v>19</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <f t="shared" ref="N22" si="22">SUM(N16:N21)</f>
         <v>6</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f t="shared" ref="O22" si="23">SUM(O16:O21)</f>
         <v>4</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="9">
         <f t="shared" ref="P22" si="24">SUM(P16:P21)</f>
         <v>67</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" ref="Q22" si="25">SUM(Q16:Q21)</f>
         <v>84</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <f t="shared" ref="R22" si="26">SUM(R16:R21)</f>
         <v>24</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="9">
         <f t="shared" ref="S22" si="27">SUM(S16:S21)</f>
         <v>204</v>
       </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="1"/>
-      <c r="AE22" s="3" t="s">
+      <c r="T22" s="12"/>
+      <c r="AE22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="9">
         <f>SUM(AF16:AF21)</f>
         <v>14</v>
       </c>
-      <c r="AG22" s="10">
+      <c r="AG22" s="9">
         <f t="shared" ref="AG22:AH22" si="28">SUM(AG16:AG21)</f>
         <v>18</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AH22" s="9">
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="AI22" s="10">
+      <c r="AI22" s="9">
         <f>SUM(AI16:AI21)</f>
         <v>24</v>
       </c>
-      <c r="AJ22" s="10">
+      <c r="AJ22" s="9">
         <f t="shared" ref="AJ22:AL22" si="29">SUM(AJ16:AJ21)</f>
         <v>70</v>
       </c>
-      <c r="AK22" s="10">
+      <c r="AK22" s="9">
         <f t="shared" si="29"/>
         <v>54</v>
       </c>
-      <c r="AL22" s="10">
+      <c r="AL22" s="9">
         <f t="shared" si="29"/>
         <v>192</v>
       </c>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="3" t="s">
+      <c r="AM22" s="12"/>
+      <c r="AO22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AP22" s="10">
+      <c r="AP22" s="9">
         <f>SUM(AP16:AP21)</f>
-        <v>19</v>
-      </c>
-      <c r="AQ22" s="10">
+        <v>22</v>
+      </c>
+      <c r="AQ22" s="9">
         <f t="shared" ref="AQ22:AV22" si="30">SUM(AQ16:AQ21)</f>
-        <v>6</v>
-      </c>
-      <c r="AR22" s="10">
+        <v>7</v>
+      </c>
+      <c r="AR22" s="9">
         <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="AS22" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="9">
         <f t="shared" si="30"/>
-        <v>67</v>
-      </c>
-      <c r="AT22" s="10">
+        <v>65</v>
+      </c>
+      <c r="AT22" s="9">
         <f t="shared" si="30"/>
-        <v>84</v>
-      </c>
-      <c r="AU22" s="10">
+        <v>78</v>
+      </c>
+      <c r="AU22" s="9">
         <f t="shared" si="30"/>
-        <v>24</v>
-      </c>
-      <c r="AV22" s="10">
+        <v>25</v>
+      </c>
+      <c r="AV22" s="9">
         <f t="shared" si="30"/>
-        <v>204</v>
-      </c>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="AW22" s="12"/>
     </row>
-    <row r="23" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:58" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <f>$X$3*C22</f>
         <v>420</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <f>$X$4*D22</f>
         <v>360</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <f>$X$5*E22</f>
         <v>225</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="15">
         <f>$X$6*F22</f>
         <v>900</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="15">
         <f>$X$7*G22</f>
         <v>915</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="15">
         <f>$X$8*H22</f>
         <v>810</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="15">
         <f>SUM(C23:H23)</f>
         <v>3630</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="15">
         <f>$X$3*M22</f>
         <v>570</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="15">
         <f>$X$4*N22</f>
         <v>120</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="15">
         <f>$X$5*O22</f>
         <v>100</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="15">
         <f>$X$6*P22</f>
         <v>1675</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="15">
         <f>$X$7*Q22</f>
         <v>1260</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="15">
         <f>$X$8*R22</f>
         <v>360</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="15">
         <f>SUM(M23:R23)</f>
         <v>4085</v>
       </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="1"/>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="15">
         <f>$X$3*AF22</f>
         <v>420</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="15">
         <f>$X$4*AG22</f>
         <v>360</v>
       </c>
-      <c r="AH23" s="18">
+      <c r="AH23" s="15">
         <f>$X$5*AH22</f>
         <v>300</v>
       </c>
-      <c r="AI23" s="18">
+      <c r="AI23" s="15">
         <f>$X$6*AI22</f>
         <v>600</v>
       </c>
-      <c r="AJ23" s="18">
+      <c r="AJ23" s="15">
         <f>$X$7*AJ22</f>
         <v>1050</v>
       </c>
-      <c r="AK23" s="18">
+      <c r="AK23" s="15">
         <f>$X$8*AK22</f>
         <v>810</v>
       </c>
-      <c r="AL23" s="18">
+      <c r="AL23" s="15">
         <f>SUM(AF23:AK23)</f>
         <v>3540</v>
       </c>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="3" t="s">
+      <c r="AO23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AP23" s="18">
+      <c r="AP23" s="15">
         <f>$X$3*AP22</f>
-        <v>570</v>
-      </c>
-      <c r="AQ23" s="18">
+        <v>660</v>
+      </c>
+      <c r="AQ23" s="15">
         <f>$X$4*AQ22</f>
-        <v>120</v>
-      </c>
-      <c r="AR23" s="18">
+        <v>140</v>
+      </c>
+      <c r="AR23" s="15">
         <f>$X$5*AR22</f>
-        <v>100</v>
-      </c>
-      <c r="AS23" s="18">
+        <v>75</v>
+      </c>
+      <c r="AS23" s="15">
         <f>$X$6*AS22</f>
-        <v>1675</v>
-      </c>
-      <c r="AT23" s="18">
+        <v>1625</v>
+      </c>
+      <c r="AT23" s="15">
         <f>$X$7*AT22</f>
-        <v>1260</v>
-      </c>
-      <c r="AU23" s="18">
+        <v>1170</v>
+      </c>
+      <c r="AU23" s="15">
         <f>$X$8*AU22</f>
-        <v>360</v>
-      </c>
-      <c r="AV23" s="18">
+        <v>375</v>
+      </c>
+      <c r="AV23" s="15">
         <f>SUM(AP23:AU23)</f>
-        <v>4085</v>
-      </c>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="1"/>
+        <v>4045</v>
+      </c>
     </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="1"/>
+    <row r="26" spans="2:58" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY26" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="14"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="14"/>
+    <row r="27" spans="2:58" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="L27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="V27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM27" s="11"/>
+      <c r="AO27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW27" s="11"/>
+      <c r="AY27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF27" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM26" s="12"/>
-      <c r="AO26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW26" s="12"/>
-      <c r="AY26" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:58" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="L27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="V27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM27" s="13"/>
-      <c r="AO27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW27" s="13"/>
-      <c r="AY27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>8</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f>SUM(C28:H28)</f>
         <v>8</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <f t="shared" ref="M28:R28" si="31">SUM(C4,C16,C28,M16,M4)</f>
         <v>9</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <f t="shared" si="31"/>
         <v>9</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <f t="shared" si="31"/>
         <v>9</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <f t="shared" si="31"/>
         <v>17</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="4">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <f>SUM(M28:R28)</f>
         <v>94</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="4">
         <v>9</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28" s="4">
         <v>9</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="4">
         <v>9</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="Z28" s="4">
         <v>17</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AA28" s="4">
         <v>25</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28" s="4">
         <v>25</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28" s="4">
         <f>SUM(W28:AB28)</f>
         <v>94</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AE28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="5">
+      <c r="AF28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL28" s="4">
+        <f>SUM(AF28:AK28)</f>
+        <v>9</v>
+      </c>
+      <c r="AO28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AL28" s="5">
-        <f>SUM(AF28:AK28)</f>
-        <v>8</v>
-      </c>
-      <c r="AM28" s="14"/>
-      <c r="AO28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP28" s="5">
+      <c r="AP28" s="4">
         <f t="shared" ref="AP28:AP33" si="32">SUM(AF4,AF16,AF28,AP16,AP4)</f>
-        <v>9</v>
-      </c>
-      <c r="AQ28" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ28" s="4">
         <f t="shared" ref="AQ28:AQ33" si="33">SUM(AG4,AG16,AG28,AQ16,AQ4)</f>
-        <v>9</v>
-      </c>
-      <c r="AR28" s="5">
+        <v>13</v>
+      </c>
+      <c r="AR28" s="4">
         <f t="shared" ref="AR28:AR33" si="34">SUM(AH4,AH16,AH28,AR16,AR4)</f>
         <v>13</v>
       </c>
-      <c r="AS28" s="5">
+      <c r="AS28" s="4">
         <f t="shared" ref="AS28:AS33" si="35">SUM(AI4,AI16,AI28,AS16,AS4)</f>
-        <v>13</v>
-      </c>
-      <c r="AT28" s="5">
+        <v>12</v>
+      </c>
+      <c r="AT28" s="4">
         <f t="shared" ref="AT28:AT33" si="36">SUM(AJ4,AJ16,AJ28,AT16,AT4)</f>
-        <v>28</v>
-      </c>
-      <c r="AU28" s="5">
+        <v>29</v>
+      </c>
+      <c r="AU28" s="4">
         <f t="shared" ref="AU28:AU33" si="37">SUM(AK4,AK16,AK28,AU16,AU4)</f>
+        <v>19</v>
+      </c>
+      <c r="AV28" s="4">
+        <f>SUM(AP28:AU28)</f>
+        <v>96</v>
+      </c>
+      <c r="AY28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>9</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>9</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>17</v>
+      </c>
+      <c r="BD28" s="4">
         <v>25</v>
       </c>
-      <c r="AV28" s="5">
-        <f>SUM(AP28:AU28)</f>
-        <v>97</v>
-      </c>
-      <c r="AW28" s="14"/>
-      <c r="AY28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ28" s="5">
-        <v>9</v>
-      </c>
-      <c r="BA28" s="5">
-        <v>9</v>
-      </c>
-      <c r="BB28" s="5">
-        <v>9</v>
-      </c>
-      <c r="BC28" s="5">
-        <v>17</v>
-      </c>
-      <c r="BD28" s="5">
+      <c r="BE28" s="4">
         <v>25</v>
       </c>
-      <c r="BE28" s="5">
-        <v>25</v>
-      </c>
-      <c r="BF28" s="5">
+      <c r="BF28" s="4">
         <f>SUM(AZ28:BE28)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" ref="I29:I33" si="38">SUM(C29:H29)</f>
         <v>8</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <f t="shared" ref="M29:M33" si="39">SUM(C5,C17,C29,M17,M5)</f>
         <v>10</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <f t="shared" ref="N29:R33" si="40">SUM(D5,D17,D29,N17,N5)</f>
         <v>8</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
         <f t="shared" si="40"/>
         <v>16</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <f t="shared" si="40"/>
         <v>24</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <f t="shared" si="40"/>
         <v>28</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="6">
         <f t="shared" ref="S29:S33" si="41">SUM(M29:R29)</f>
         <v>94</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="6">
         <v>10</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <v>8</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="6">
         <v>8</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="Z29" s="6">
         <v>16</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA29" s="6">
         <v>24</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AB29" s="6">
         <v>28</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AC29" s="6">
         <f t="shared" ref="AC29:AC33" si="42">SUM(W29:AB29)</f>
         <v>94</v>
       </c>
-      <c r="AE29" s="6" t="s">
+      <c r="AE29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="7">
-        <v>6</v>
-      </c>
-      <c r="AL29" s="7">
+      <c r="AF29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="6">
+        <v>7</v>
+      </c>
+      <c r="AL29" s="6">
         <f t="shared" ref="AL29:AL33" si="43">SUM(AF29:AK29)</f>
         <v>8</v>
       </c>
-      <c r="AM29" s="14"/>
-      <c r="AO29" s="6" t="s">
+      <c r="AO29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AP29" s="4">
         <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="AQ29" s="4">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="AR29" s="4">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AS29" s="4">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="AT29" s="4">
+        <f t="shared" si="36"/>
+        <v>31</v>
+      </c>
+      <c r="AU29" s="4">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="AV29" s="6">
+        <f t="shared" ref="AV29:AV33" si="44">SUM(AP29:AU29)</f>
+        <v>93</v>
+      </c>
+      <c r="AY29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ29" s="6">
         <v>10</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="BA29" s="6">
+        <v>8</v>
+      </c>
+      <c r="BB29" s="6">
+        <v>8</v>
+      </c>
+      <c r="BC29" s="6">
+        <v>16</v>
+      </c>
+      <c r="BD29" s="6">
+        <v>24</v>
+      </c>
+      <c r="BE29" s="6">
+        <v>28</v>
+      </c>
+      <c r="BF29" s="6">
+        <f t="shared" ref="BF29:BF33" si="45">SUM(AZ29:BE29)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="40"/>
+        <v>17</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="40"/>
+        <v>23</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="41"/>
+        <v>94</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="4">
+        <v>8</v>
+      </c>
+      <c r="X30" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>17</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>23</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC30" s="4">
+        <f t="shared" si="42"/>
+        <v>94</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="4">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP30" s="4">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="AQ30" s="4">
+        <f t="shared" si="33"/>
+        <v>15</v>
+      </c>
+      <c r="AR30" s="4">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="AS30" s="4">
+        <f t="shared" si="35"/>
+        <v>14</v>
+      </c>
+      <c r="AT30" s="4">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+      <c r="AU30" s="4">
+        <f t="shared" si="37"/>
+        <v>22</v>
+      </c>
+      <c r="AV30" s="4">
+        <f t="shared" si="44"/>
+        <v>96</v>
+      </c>
+      <c r="AY30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>9</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>17</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>23</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>27</v>
+      </c>
+      <c r="BF30" s="4">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>6</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="40"/>
+        <v>24</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="40"/>
+        <v>26</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="41"/>
+        <v>94</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W31" s="6">
+        <v>11</v>
+      </c>
+      <c r="X31" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>18</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>24</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>26</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="42"/>
+        <v>94</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="6">
+        <v>8</v>
+      </c>
+      <c r="AL31" s="6">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="AO31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP31" s="4">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="AQ31" s="4">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="AR31" s="4">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="AS31" s="4">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="AT31" s="4">
+        <f t="shared" si="36"/>
+        <v>23</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="37"/>
+        <v>31</v>
+      </c>
+      <c r="AV31" s="6">
+        <f t="shared" si="44"/>
+        <v>93</v>
+      </c>
+      <c r="AY31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ31" s="6">
+        <v>11</v>
+      </c>
+      <c r="BA31" s="6">
+        <v>7</v>
+      </c>
+      <c r="BB31" s="6">
+        <v>8</v>
+      </c>
+      <c r="BC31" s="6">
+        <v>18</v>
+      </c>
+      <c r="BD31" s="6">
+        <v>24</v>
+      </c>
+      <c r="BE31" s="6">
+        <v>26</v>
+      </c>
+      <c r="BF31" s="6">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="40"/>
+        <v>24</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="41"/>
+        <v>94</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="4">
+        <v>11</v>
+      </c>
+      <c r="X32" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>18</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC32" s="4">
+        <f t="shared" si="42"/>
+        <v>94</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>8</v>
+      </c>
+      <c r="AL32" s="4">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" s="4">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="4">
         <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AR32" s="4">
         <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AS32" s="4">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="AT32" s="4">
+        <f t="shared" si="36"/>
+        <v>22</v>
+      </c>
+      <c r="AU32" s="4">
+        <f t="shared" si="37"/>
+        <v>26</v>
+      </c>
+      <c r="AV32" s="4">
+        <f t="shared" si="44"/>
+        <v>90</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>11</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>9</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>18</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>25</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>24</v>
+      </c>
+      <c r="BF32" s="4">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <v>8</v>
       </c>
-      <c r="AS29" s="5">
-        <f t="shared" si="35"/>
-        <v>15</v>
-      </c>
-      <c r="AT29" s="5">
-        <f t="shared" si="36"/>
-        <v>26</v>
-      </c>
-      <c r="AU29" s="5">
-        <f t="shared" si="37"/>
-        <v>28</v>
-      </c>
-      <c r="AV29" s="7">
-        <f t="shared" ref="AV29:AV33" si="44">SUM(AP29:AU29)</f>
-        <v>95</v>
-      </c>
-      <c r="AW29" s="14"/>
-      <c r="AY29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ29" s="7">
-        <v>10</v>
-      </c>
-      <c r="BA29" s="7">
-        <v>8</v>
-      </c>
-      <c r="BB29" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC29" s="7">
-        <v>16</v>
-      </c>
-      <c r="BD29" s="7">
-        <v>24</v>
-      </c>
-      <c r="BE29" s="7">
-        <v>28</v>
-      </c>
-      <c r="BF29" s="7">
-        <f t="shared" ref="BF29:BF33" si="45">SUM(AZ29:BE29)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="I33" s="6">
         <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="L30" s="4" t="s">
+      <c r="L33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
-      <c r="M30" s="5">
-        <f t="shared" si="39"/>
+      <c r="N33" s="4">
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O33" s="4">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="P30" s="5">
+      <c r="P33" s="4">
         <f t="shared" si="40"/>
         <v>17</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q33" s="4">
         <f t="shared" si="40"/>
-        <v>23</v>
-      </c>
-      <c r="R30" s="5">
+        <v>24</v>
+      </c>
+      <c r="R33" s="4">
         <f t="shared" si="40"/>
-        <v>27</v>
-      </c>
-      <c r="S30" s="5">
+        <v>26</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="41"/>
         <v>94</v>
       </c>
-      <c r="T30" s="14"/>
-      <c r="V30" s="4" t="s">
+      <c r="V33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W33" s="6">
         <v>10</v>
       </c>
-      <c r="W30" s="5">
+      <c r="X33" s="6">
         <v>8</v>
       </c>
-      <c r="X30" s="5">
+      <c r="Y33" s="6">
         <v>9</v>
       </c>
-      <c r="Y30" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="5">
+      <c r="Z33" s="6">
         <v>17</v>
       </c>
-      <c r="AA30" s="5">
-        <v>23</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>27</v>
-      </c>
-      <c r="AC30" s="5">
+      <c r="AA33" s="6">
+        <v>24</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>26</v>
+      </c>
+      <c r="AC33" s="6">
         <f t="shared" si="42"/>
         <v>94</v>
       </c>
-      <c r="AE30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
+      <c r="AE33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF33" s="8">
         <v>3</v>
       </c>
-      <c r="AH30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="5">
+      <c r="AG33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
         <v>5</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AL33" s="6">
         <f t="shared" si="43"/>
         <v>8</v>
       </c>
-      <c r="AM30" s="14"/>
-      <c r="AO30" s="4" t="s">
+      <c r="AO33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP33" s="4">
+        <f t="shared" si="32"/>
+        <v>15</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="AR33" s="4">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="AP30" s="5">
-        <f t="shared" si="32"/>
+      <c r="AT33" s="4">
+        <f t="shared" si="36"/>
+        <v>27</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="37"/>
+        <v>26</v>
+      </c>
+      <c r="AV33" s="6">
+        <f t="shared" si="44"/>
+        <v>96</v>
+      </c>
+      <c r="AY33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ33" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA33" s="6">
         <v>8</v>
       </c>
-      <c r="AQ30" s="5">
-        <f t="shared" si="33"/>
-        <v>13</v>
-      </c>
-      <c r="AR30" s="5">
-        <f t="shared" si="34"/>
-        <v>13</v>
-      </c>
-      <c r="AS30" s="5">
-        <f t="shared" si="35"/>
-        <v>14</v>
-      </c>
-      <c r="AT30" s="5">
-        <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="AU30" s="5">
-        <f t="shared" si="37"/>
-        <v>27</v>
-      </c>
-      <c r="AV30" s="5">
-        <f t="shared" si="44"/>
-        <v>98</v>
-      </c>
-      <c r="AW30" s="14"/>
-      <c r="AY30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ30" s="5">
-        <v>8</v>
-      </c>
-      <c r="BA30" s="5">
+      <c r="BB33" s="6">
         <v>9</v>
       </c>
-      <c r="BB30" s="5">
-        <v>10</v>
-      </c>
-      <c r="BC30" s="5">
+      <c r="BC33" s="6">
         <v>17</v>
       </c>
-      <c r="BD30" s="5">
-        <v>23</v>
-      </c>
-      <c r="BE30" s="5">
-        <v>27</v>
-      </c>
-      <c r="BF30" s="5">
+      <c r="BD33" s="6">
+        <v>24</v>
+      </c>
+      <c r="BE33" s="6">
+        <v>26</v>
+      </c>
+      <c r="BF33" s="6">
         <f t="shared" si="45"/>
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="L31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" si="39"/>
-        <v>11</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="40"/>
-        <v>7</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" si="40"/>
-        <v>8</v>
-      </c>
-      <c r="P31" s="5">
-        <f t="shared" si="40"/>
-        <v>18</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="40"/>
-        <v>24</v>
-      </c>
-      <c r="R31" s="5">
-        <f t="shared" si="40"/>
-        <v>26</v>
-      </c>
-      <c r="S31" s="7">
-        <f t="shared" si="41"/>
-        <v>94</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="V31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W31" s="7">
-        <v>11</v>
-      </c>
-      <c r="X31" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>18</v>
-      </c>
-      <c r="AA31" s="7">
-        <v>24</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>26</v>
-      </c>
-      <c r="AC31" s="7">
-        <f t="shared" si="42"/>
-        <v>94</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF31" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="7">
-        <v>6</v>
-      </c>
-      <c r="AL31" s="7">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-      <c r="AM31" s="14"/>
-      <c r="AO31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP31" s="5">
-        <f t="shared" si="32"/>
-        <v>11</v>
-      </c>
-      <c r="AQ31" s="5">
-        <f t="shared" si="33"/>
-        <v>7</v>
-      </c>
-      <c r="AR31" s="5">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="AS31" s="5">
-        <f t="shared" si="35"/>
+    <row r="34" spans="2:58" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AT31" s="5">
-        <f t="shared" si="36"/>
-        <v>26</v>
-      </c>
-      <c r="AU31" s="5">
-        <f t="shared" si="37"/>
-        <v>26</v>
-      </c>
-      <c r="AV31" s="7">
-        <f t="shared" si="44"/>
-        <v>92</v>
-      </c>
-      <c r="AW31" s="14"/>
-      <c r="AY31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ31" s="7">
-        <v>11</v>
-      </c>
-      <c r="BA31" s="7">
-        <v>7</v>
-      </c>
-      <c r="BB31" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC31" s="7">
-        <v>18</v>
-      </c>
-      <c r="BD31" s="7">
-        <v>24</v>
-      </c>
-      <c r="BE31" s="7">
-        <v>26</v>
-      </c>
-      <c r="BF31" s="7">
-        <f t="shared" si="45"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="L32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="39"/>
-        <v>11</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="40"/>
-        <v>9</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="40"/>
-        <v>7</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="40"/>
-        <v>18</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="40"/>
-        <v>25</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="40"/>
-        <v>24</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" si="41"/>
-        <v>94</v>
-      </c>
-      <c r="T32" s="14"/>
-      <c r="V32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W32" s="5">
-        <v>11</v>
-      </c>
-      <c r="X32" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>18</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>24</v>
-      </c>
-      <c r="AC32" s="5">
-        <f t="shared" si="42"/>
-        <v>94</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5">
-        <v>3</v>
-      </c>
-      <c r="AL32" s="5">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-      <c r="AM32" s="14"/>
-      <c r="AO32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP32" s="5">
-        <f t="shared" si="32"/>
-        <v>11</v>
-      </c>
-      <c r="AQ32" s="5">
-        <f t="shared" si="33"/>
-        <v>9</v>
-      </c>
-      <c r="AR32" s="5">
-        <f t="shared" si="34"/>
-        <v>7</v>
-      </c>
-      <c r="AS32" s="5">
-        <f t="shared" si="35"/>
-        <v>16</v>
-      </c>
-      <c r="AT32" s="5">
-        <f t="shared" si="36"/>
-        <v>25</v>
-      </c>
-      <c r="AU32" s="5">
-        <f t="shared" si="37"/>
-        <v>18</v>
-      </c>
-      <c r="AV32" s="5">
-        <f t="shared" si="44"/>
-        <v>86</v>
-      </c>
-      <c r="AW32" s="14"/>
-      <c r="AY32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ32" s="5">
-        <v>11</v>
-      </c>
-      <c r="BA32" s="5">
-        <v>9</v>
-      </c>
-      <c r="BB32" s="5">
-        <v>7</v>
-      </c>
-      <c r="BC32" s="5">
-        <v>18</v>
-      </c>
-      <c r="BD32" s="5">
-        <v>25</v>
-      </c>
-      <c r="BE32" s="5">
-        <v>24</v>
-      </c>
-      <c r="BF32" s="5">
-        <f t="shared" si="45"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>8</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="L33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="5">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="N33" s="5">
-        <f t="shared" si="40"/>
-        <v>8</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" si="40"/>
-        <v>9</v>
-      </c>
-      <c r="P33" s="5">
-        <f t="shared" si="40"/>
-        <v>17</v>
-      </c>
-      <c r="Q33" s="5">
-        <f t="shared" si="40"/>
-        <v>24</v>
-      </c>
-      <c r="R33" s="5">
-        <f t="shared" si="40"/>
-        <v>26</v>
-      </c>
-      <c r="S33" s="7">
-        <f t="shared" si="41"/>
-        <v>94</v>
-      </c>
-      <c r="T33" s="14"/>
-      <c r="V33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W33" s="7">
-        <v>10</v>
-      </c>
-      <c r="X33" s="7">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="7">
-        <v>17</v>
-      </c>
-      <c r="AA33" s="7">
-        <v>24</v>
-      </c>
-      <c r="AB33" s="7">
-        <v>26</v>
-      </c>
-      <c r="AC33" s="7">
-        <f t="shared" si="42"/>
-        <v>94</v>
-      </c>
-      <c r="AE33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="9">
-        <v>8</v>
-      </c>
-      <c r="AL33" s="7">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-      <c r="AM33" s="14"/>
-      <c r="AO33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP33" s="5">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="AQ33" s="5">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AR33" s="5">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="AS33" s="5">
-        <f t="shared" si="35"/>
-        <v>19</v>
-      </c>
-      <c r="AT33" s="5">
-        <f t="shared" si="36"/>
-        <v>26</v>
-      </c>
-      <c r="AU33" s="5">
-        <f t="shared" si="37"/>
-        <v>26</v>
-      </c>
-      <c r="AV33" s="7">
-        <f t="shared" si="44"/>
-        <v>98</v>
-      </c>
-      <c r="AW33" s="14"/>
-      <c r="AY33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ33" s="7">
-        <v>10</v>
-      </c>
-      <c r="BA33" s="7">
-        <v>8</v>
-      </c>
-      <c r="BB33" s="7">
-        <v>9</v>
-      </c>
-      <c r="BC33" s="7">
-        <v>17</v>
-      </c>
-      <c r="BD33" s="7">
-        <v>24</v>
-      </c>
-      <c r="BE33" s="7">
-        <v>26</v>
-      </c>
-      <c r="BF33" s="7">
-        <f t="shared" si="45"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <f>SUM(C28:C33)</f>
         <v>7</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <f t="shared" ref="D34" si="46">SUM(D28:D33)</f>
         <v>5</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <f t="shared" ref="E34" si="47">SUM(E28:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <f t="shared" ref="F34" si="48">SUM(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <f t="shared" ref="G34" si="49">SUM(G28:G33)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" ref="H34" si="50">SUM(H28:H33)</f>
         <v>36</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f t="shared" ref="I34" si="51">SUM(I28:I33)</f>
         <v>48</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="L34" s="3" t="s">
+      <c r="J34" s="12"/>
+      <c r="L34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <f>SUM(M28:M33)</f>
         <v>59</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <f t="shared" ref="N34" si="52">SUM(N28:N33)</f>
         <v>50</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <f t="shared" ref="O34" si="53">SUM(O28:O33)</f>
         <v>51</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <f t="shared" ref="P34" si="54">SUM(P28:P33)</f>
         <v>103</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" ref="Q34" si="55">SUM(Q28:Q33)</f>
         <v>145</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <f t="shared" ref="R34" si="56">SUM(R28:R33)</f>
         <v>156</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="9">
         <f t="shared" ref="S34" si="57">SUM(S28:S33)</f>
         <v>564</v>
       </c>
-      <c r="T34" s="15"/>
-      <c r="V34" s="3" t="s">
+      <c r="T34" s="12"/>
+      <c r="V34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W34" s="10">
+      <c r="W34" s="9">
         <f>SUM(W28:W33)</f>
         <v>59</v>
       </c>
-      <c r="X34" s="10">
+      <c r="X34" s="9">
         <f t="shared" ref="X34" si="58">SUM(X28:X33)</f>
         <v>50</v>
       </c>
-      <c r="Y34" s="10">
+      <c r="Y34" s="9">
         <f t="shared" ref="Y34" si="59">SUM(Y28:Y33)</f>
         <v>51</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="Z34" s="9">
         <f t="shared" ref="Z34" si="60">SUM(Z28:Z33)</f>
         <v>103</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AA34" s="9">
         <f t="shared" ref="AA34" si="61">SUM(AA28:AA33)</f>
         <v>145</v>
       </c>
-      <c r="AB34" s="10">
+      <c r="AB34" s="9">
         <f t="shared" ref="AB34" si="62">SUM(AB28:AB33)</f>
         <v>156</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AC34" s="9">
         <f t="shared" ref="AC34" si="63">SUM(AC28:AC33)</f>
         <v>564</v>
       </c>
-      <c r="AE34" s="3" t="s">
+      <c r="AE34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF34" s="10">
+      <c r="AF34" s="9">
         <f>SUM(AF28:AF33)</f>
-        <v>7</v>
-      </c>
-      <c r="AG34" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="9">
         <f t="shared" ref="AG34:AL34" si="64">SUM(AG28:AG33)</f>
-        <v>5</v>
-      </c>
-      <c r="AH34" s="10">
+        <v>8</v>
+      </c>
+      <c r="AH34" s="9">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="10">
+      <c r="AI34" s="9">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="AJ34" s="10">
+      <c r="AJ34" s="9">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="9">
         <f t="shared" si="64"/>
-        <v>36</v>
-      </c>
-      <c r="AL34" s="10">
+        <v>34</v>
+      </c>
+      <c r="AL34" s="9">
         <f t="shared" si="64"/>
-        <v>48</v>
-      </c>
-      <c r="AM34" s="15"/>
-      <c r="AO34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM34" s="12"/>
+      <c r="AO34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AP34" s="10">
+      <c r="AP34" s="9">
         <f>SUM(AP28:AP33)</f>
-        <v>59</v>
-      </c>
-      <c r="AQ34" s="10">
+        <v>61</v>
+      </c>
+      <c r="AQ34" s="9">
         <f t="shared" ref="AQ34:AV34" si="65">SUM(AQ28:AQ33)</f>
-        <v>54</v>
-      </c>
-      <c r="AR34" s="10">
+        <v>58</v>
+      </c>
+      <c r="AR34" s="9">
         <f t="shared" si="65"/>
-        <v>58</v>
-      </c>
-      <c r="AS34" s="10">
+        <v>57</v>
+      </c>
+      <c r="AS34" s="9">
         <f t="shared" si="65"/>
-        <v>91</v>
-      </c>
-      <c r="AT34" s="10">
-        <f t="shared" si="65"/>
-        <v>154</v>
-      </c>
-      <c r="AU34" s="10">
+        <v>89</v>
+      </c>
+      <c r="AT34" s="9">
         <f t="shared" si="65"/>
         <v>150</v>
       </c>
-      <c r="AV34" s="10">
+      <c r="AU34" s="9">
         <f t="shared" si="65"/>
-        <v>566</v>
-      </c>
-      <c r="AW34" s="15"/>
-      <c r="AY34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV34" s="9">
+        <f t="shared" si="65"/>
+        <v>564</v>
+      </c>
+      <c r="AW34" s="12"/>
+      <c r="AY34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AZ34" s="10">
+      <c r="AZ34" s="9">
         <f>SUM(AZ28:AZ33)</f>
         <v>59</v>
       </c>
-      <c r="BA34" s="10">
+      <c r="BA34" s="9">
         <f t="shared" ref="BA34:BF34" si="66">SUM(BA28:BA33)</f>
         <v>50</v>
       </c>
-      <c r="BB34" s="10">
+      <c r="BB34" s="9">
         <f t="shared" si="66"/>
         <v>51</v>
       </c>
-      <c r="BC34" s="10">
+      <c r="BC34" s="9">
         <f t="shared" si="66"/>
         <v>103</v>
       </c>
-      <c r="BD34" s="10">
+      <c r="BD34" s="9">
         <f t="shared" si="66"/>
         <v>145</v>
       </c>
-      <c r="BE34" s="10">
+      <c r="BE34" s="9">
         <f t="shared" si="66"/>
         <v>156</v>
       </c>
-      <c r="BF34" s="10">
+      <c r="BF34" s="9">
         <f t="shared" si="66"/>
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="2:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:58" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <f>$X$3*C34</f>
         <v>210</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <f>$X$4*D34</f>
         <v>100</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <f>$X$5*E34</f>
         <v>0</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <f>$X$6*F34</f>
         <v>0</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <f>$X$7*G34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="15">
         <f>$X$8*H34</f>
         <v>540</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <f>SUM(C35:H35)</f>
         <v>850</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="15">
         <f>$X$3*M34</f>
         <v>1770</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="15">
         <f>$X$4*N34</f>
         <v>1000</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="15">
         <f>$X$5*O34</f>
         <v>1275</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="15">
         <f>$X$6*P34</f>
         <v>2575</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="15">
         <f>$X$7*Q34</f>
         <v>2175</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="15">
         <f>$X$8*R34</f>
         <v>2340</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="15">
         <f>SUM(M35:R35)</f>
         <v>11135</v>
       </c>
-      <c r="AE35" s="3" t="s">
+      <c r="AE35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF35" s="18">
+      <c r="AF35" s="15">
         <f>$X$3*AF34</f>
-        <v>210</v>
-      </c>
-      <c r="AG35" s="18">
+        <v>180</v>
+      </c>
+      <c r="AG35" s="15">
         <f>$X$4*AG34</f>
-        <v>100</v>
-      </c>
-      <c r="AH35" s="18">
+        <v>160</v>
+      </c>
+      <c r="AH35" s="15">
         <f>$X$5*AH34</f>
         <v>0</v>
       </c>
-      <c r="AI35" s="18">
+      <c r="AI35" s="15">
         <f>$X$6*AI34</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="18">
+      <c r="AJ35" s="15">
         <f>$X$7*AJ34</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="18">
+        <v>30</v>
+      </c>
+      <c r="AK35" s="15">
         <f>$X$8*AK34</f>
-        <v>540</v>
-      </c>
-      <c r="AL35" s="18">
+        <v>510</v>
+      </c>
+      <c r="AL35" s="15">
         <f>SUM(AF35:AK35)</f>
-        <v>850</v>
-      </c>
-      <c r="AM35" s="12"/>
-      <c r="AO35" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="AO35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AP35" s="18">
+      <c r="AP35" s="15">
         <f>$X$3*AP34</f>
-        <v>1770</v>
-      </c>
-      <c r="AQ35" s="18">
+        <v>1830</v>
+      </c>
+      <c r="AQ35" s="15">
         <f>$X$4*AQ34</f>
-        <v>1080</v>
-      </c>
-      <c r="AR35" s="18">
+        <v>1160</v>
+      </c>
+      <c r="AR35" s="15">
         <f>$X$5*AR34</f>
-        <v>1450</v>
-      </c>
-      <c r="AS35" s="18">
+        <v>1425</v>
+      </c>
+      <c r="AS35" s="15">
         <f>$X$6*AS34</f>
-        <v>2275</v>
-      </c>
-      <c r="AT35" s="18">
+        <v>2225</v>
+      </c>
+      <c r="AT35" s="15">
         <f>$X$7*AT34</f>
-        <v>2310</v>
-      </c>
-      <c r="AU35" s="18">
+        <v>2250</v>
+      </c>
+      <c r="AU35" s="15">
         <f>$X$8*AU34</f>
-        <v>2250</v>
-      </c>
-      <c r="AV35" s="18">
+        <v>2235</v>
+      </c>
+      <c r="AV35" s="15">
         <f>SUM(AP35:AU35)</f>
-        <v>11135</v>
-      </c>
-      <c r="AW35" s="12"/>
+        <v>11125</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>$W$28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M28:R33">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>W28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>W28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
       <formula>W28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="AP8">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$W$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP28:AU33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>AZ28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>AZ28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>AZ28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$W$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
